--- a/biology/Médecine/Paraplégie_spastique_type_7/Paraplégie_spastique_type_7.xlsx
+++ b/biology/Médecine/Paraplégie_spastique_type_7/Paraplégie_spastique_type_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parapl%C3%A9gie_spastique_type_7</t>
+          <t>Paraplégie_spastique_type_7</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La paraplégie spastique type 7 est une maladie génétique du groupe des paraplégies spastiques familiales. Elle se manifeste par une faiblesse musculaire très progressive atteignant les membres inférieurs s’accompagnant d’une hypertonie musculaire entraînant une raideur du membre inférieur avec une disparition de la perte de la sensibilité profonde. Mais le début de la maladie s'échelonne entre 11 et 72 ans. Les autres signes de la maladie sont: des troubles du tonus des bras, des troubles des sphincters, une dysarthrie, une dysphagie, une ataxie, un nystagmus, un strabisme, une surdité progressive, des déformations osseuses.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parapl%C3%A9gie_spastique_type_7</t>
+          <t>Paraplégie_spastique_type_7</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>(en) Giorgio Casari, Roberto Marconi « Spastic Paraplegia 7 » in GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2006 [1] PMID 20301286</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(en) Giorgio Casari, Roberto Marconi « Spastic Paraplegia 7 » in GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2006  PMID 20301286</t>
         </is>
       </c>
     </row>
